--- a/excel/sablonlar/Uretim_list.xlsx
+++ b/excel/sablonlar/Uretim_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F17213-3649-45FA-A110-C0E147FDCD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8DFBA-1340-4F0D-8F43-32A7384DD278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TARİH</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Kalan Miktar</t>
+  </si>
+  <si>
+    <t>Adet</t>
   </si>
 </sst>
 </file>
@@ -183,11 +186,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,14 +204,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +498,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P955"/>
+  <dimension ref="A1:Q955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,49 +525,52 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -578,7 +584,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -592,7 +598,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -606,7 +612,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -620,7 +626,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -634,7 +640,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -648,7 +654,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -662,7 +668,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -676,7 +682,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -690,7 +696,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -704,7 +710,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -718,7 +724,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -732,7 +738,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -746,7 +752,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -760,7 +766,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
